--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.887073</v>
+        <v>3.469730666666667</v>
       </c>
       <c r="H2">
-        <v>5.661219000000001</v>
+        <v>10.409192</v>
       </c>
       <c r="I2">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="J2">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N2">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O2">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P2">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q2">
-        <v>1.864428753024334</v>
+        <v>4.490794911215111</v>
       </c>
       <c r="R2">
-        <v>16.779858777219</v>
+        <v>40.417154200936</v>
       </c>
       <c r="S2">
-        <v>0.0008458689208710138</v>
+        <v>0.005240006970064047</v>
       </c>
       <c r="T2">
-        <v>0.0008458689208710137</v>
+        <v>0.005240006970064047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.887073</v>
+        <v>3.469730666666667</v>
       </c>
       <c r="H3">
-        <v>5.661219000000001</v>
+        <v>10.409192</v>
       </c>
       <c r="I3">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="J3">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.307545</v>
       </c>
       <c r="O3">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P3">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q3">
-        <v>86.99881128859502</v>
+        <v>159.96331010596</v>
       </c>
       <c r="R3">
-        <v>782.9893015973552</v>
+        <v>1439.66979095364</v>
       </c>
       <c r="S3">
-        <v>0.03947031523858095</v>
+        <v>0.1866504430688745</v>
       </c>
       <c r="T3">
-        <v>0.03947031523858095</v>
+        <v>0.1866504430688744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.887073</v>
+        <v>3.469730666666667</v>
       </c>
       <c r="H4">
-        <v>5.661219000000001</v>
+        <v>10.409192</v>
       </c>
       <c r="I4">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="J4">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N4">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O4">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P4">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q4">
-        <v>1.264732050208334</v>
+        <v>0.5305160360488889</v>
       </c>
       <c r="R4">
-        <v>11.382588451875</v>
+        <v>4.77464432444</v>
       </c>
       <c r="S4">
-        <v>0.0005737937332093621</v>
+        <v>0.000619023531821618</v>
       </c>
       <c r="T4">
-        <v>0.000573793733209362</v>
+        <v>0.000619023531821618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.887073</v>
+        <v>3.469730666666667</v>
       </c>
       <c r="H5">
-        <v>5.661219000000001</v>
+        <v>10.409192</v>
       </c>
       <c r="I5">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="J5">
-        <v>0.04216693303329257</v>
+        <v>0.1962645339182282</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N5">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O5">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P5">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q5">
-        <v>1.31568616633</v>
+        <v>2.423769948008</v>
       </c>
       <c r="R5">
-        <v>11.84117549697</v>
+        <v>21.813929532072</v>
       </c>
       <c r="S5">
-        <v>0.0005969110033908352</v>
+        <v>0.002828134366518465</v>
       </c>
       <c r="T5">
-        <v>0.0005969110033908351</v>
+        <v>0.002828134366518465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.469730666666667</v>
+      </c>
+      <c r="H6">
+        <v>10.409192</v>
+      </c>
+      <c r="I6">
+        <v>0.1962645339182282</v>
+      </c>
+      <c r="J6">
+        <v>0.1962645339182282</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>1.887073</v>
-      </c>
-      <c r="H6">
-        <v>5.661219000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.04216693303329257</v>
-      </c>
-      <c r="J6">
-        <v>0.04216693303329257</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.794312</v>
+        <v>0.22895</v>
       </c>
       <c r="N6">
-        <v>2.382936</v>
+        <v>0.68685</v>
       </c>
       <c r="O6">
-        <v>0.01612742706953525</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="P6">
-        <v>0.01612742706953524</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="Q6">
-        <v>1.498924728776</v>
+        <v>0.7943948361333333</v>
       </c>
       <c r="R6">
-        <v>13.490322558984</v>
+        <v>7.149553525199999</v>
       </c>
       <c r="S6">
-        <v>0.0006800441372404025</v>
+        <v>0.0009269259809496033</v>
       </c>
       <c r="T6">
-        <v>0.0006800441372404023</v>
+        <v>0.0009269259809496033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.86390766666667</v>
+        <v>12.50502833333333</v>
       </c>
       <c r="H7">
-        <v>38.591723</v>
+        <v>37.515085</v>
       </c>
       <c r="I7">
-        <v>0.2874459722155911</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="J7">
-        <v>0.287445972215591</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N7">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O7">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P7">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q7">
-        <v>12.70954506263589</v>
+        <v>16.18497889286722</v>
       </c>
       <c r="R7">
-        <v>114.385905563723</v>
+        <v>145.664810035805</v>
       </c>
       <c r="S7">
-        <v>0.005766167867479263</v>
+        <v>0.01888516485069593</v>
       </c>
       <c r="T7">
-        <v>0.00576616786747926</v>
+        <v>0.01888516485069592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.86390766666667</v>
+        <v>12.50502833333333</v>
       </c>
       <c r="H8">
-        <v>38.591723</v>
+        <v>37.515085</v>
       </c>
       <c r="I8">
-        <v>0.2874459722155911</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="J8">
-        <v>0.287445972215591</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>138.307545</v>
       </c>
       <c r="O8">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P8">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q8">
-        <v>593.0584961611152</v>
+        <v>576.513256312925</v>
       </c>
       <c r="R8">
-        <v>5337.526465450035</v>
+        <v>5188.619306816325</v>
       </c>
       <c r="S8">
-        <v>0.2690635130720071</v>
+        <v>0.6726945988715057</v>
       </c>
       <c r="T8">
-        <v>0.269063513072007</v>
+        <v>0.6726945988715057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.86390766666667</v>
+        <v>12.50502833333333</v>
       </c>
       <c r="H9">
-        <v>38.591723</v>
+        <v>37.515085</v>
       </c>
       <c r="I9">
-        <v>0.2874459722155911</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="J9">
-        <v>0.287445972215591</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N9">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O9">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P9">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q9">
-        <v>8.621498117430557</v>
+        <v>1.911997990452778</v>
       </c>
       <c r="R9">
-        <v>77.593483056875</v>
+        <v>17.207981914075</v>
       </c>
       <c r="S9">
-        <v>0.003911470093481916</v>
+        <v>0.002230982040996862</v>
       </c>
       <c r="T9">
-        <v>0.003911470093481915</v>
+        <v>0.002230982040996862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.86390766666667</v>
+        <v>12.50502833333333</v>
       </c>
       <c r="H10">
-        <v>38.591723</v>
+        <v>37.515085</v>
       </c>
       <c r="I10">
-        <v>0.2874459722155911</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="J10">
-        <v>0.287445972215591</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N10">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O10">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P10">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q10">
-        <v>8.968845064276669</v>
+        <v>8.735350027165001</v>
       </c>
       <c r="R10">
-        <v>80.71960557849002</v>
+        <v>78.61815024448501</v>
       </c>
       <c r="S10">
-        <v>0.004069057229284218</v>
+        <v>0.01019269326104864</v>
       </c>
       <c r="T10">
-        <v>0.004069057229284217</v>
+        <v>0.01019269326104864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.86390766666667</v>
+        <v>12.50502833333333</v>
       </c>
       <c r="H11">
-        <v>38.591723</v>
+        <v>37.515085</v>
       </c>
       <c r="I11">
-        <v>0.2874459722155911</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="J11">
-        <v>0.287445972215591</v>
+        <v>0.7073441120528581</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.794312</v>
+        <v>0.22895</v>
       </c>
       <c r="N11">
-        <v>2.382936</v>
+        <v>0.68685</v>
       </c>
       <c r="O11">
-        <v>0.01612742706953525</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="P11">
-        <v>0.01612742706953524</v>
+        <v>0.004722839946904511</v>
       </c>
       <c r="Q11">
-        <v>10.21795622652533</v>
+        <v>2.863026236916666</v>
       </c>
       <c r="R11">
-        <v>91.96160603872801</v>
+        <v>25.76723613225</v>
       </c>
       <c r="S11">
-        <v>0.0046357639533386</v>
+        <v>0.003340673028610938</v>
       </c>
       <c r="T11">
-        <v>0.004635763953338598</v>
+        <v>0.003340673028610938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>30.001456</v>
+        <v>0.007823666666666666</v>
       </c>
       <c r="H12">
-        <v>90.004368</v>
+        <v>0.023471</v>
       </c>
       <c r="I12">
-        <v>0.6703870947511164</v>
+        <v>0.0004425439434294932</v>
       </c>
       <c r="J12">
-        <v>0.6703870947511162</v>
+        <v>0.0004425439434294933</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9880003333333334</v>
+        <v>1.294277666666667</v>
       </c>
       <c r="N12">
-        <v>2.964001</v>
+        <v>3.882833</v>
       </c>
       <c r="O12">
-        <v>0.02006000579181713</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="P12">
-        <v>0.02006000579181712</v>
+        <v>0.02669869520209519</v>
       </c>
       <c r="Q12">
-        <v>29.64144852848533</v>
+        <v>0.01012599703811111</v>
       </c>
       <c r="R12">
-        <v>266.773036756368</v>
+        <v>0.091133973343</v>
       </c>
       <c r="S12">
-        <v>0.01344796900346685</v>
+        <v>1.18153458591573E-05</v>
       </c>
       <c r="T12">
-        <v>0.01344796900346685</v>
+        <v>1.18153458591573E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>30.001456</v>
+        <v>0.007823666666666666</v>
       </c>
       <c r="H13">
-        <v>90.004368</v>
+        <v>0.023471</v>
       </c>
       <c r="I13">
-        <v>0.6703870947511164</v>
+        <v>0.0004425439434294932</v>
       </c>
       <c r="J13">
-        <v>0.6703870947511162</v>
+        <v>0.0004425439434294933</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>138.307545</v>
       </c>
       <c r="O13">
-        <v>0.9360489938269279</v>
+        <v>0.9510146298089733</v>
       </c>
       <c r="P13">
-        <v>0.9360489938269277</v>
+        <v>0.9510146298089732</v>
       </c>
       <c r="Q13">
-        <v>1383.14257526184</v>
+        <v>0.360690709855</v>
       </c>
       <c r="R13">
-        <v>12448.28317735656</v>
+        <v>3.246216388695</v>
       </c>
       <c r="S13">
-        <v>0.6275151655163398</v>
+        <v>0.0004208657645348027</v>
       </c>
       <c r="T13">
-        <v>0.6275151655163397</v>
+        <v>0.0004208657645348027</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>30.001456</v>
+        <v>0.007823666666666666</v>
       </c>
       <c r="H14">
-        <v>90.004368</v>
+        <v>0.023471</v>
       </c>
       <c r="I14">
-        <v>0.6703870947511164</v>
+        <v>0.0004425439434294932</v>
       </c>
       <c r="J14">
-        <v>0.6703870947511162</v>
+        <v>0.0004425439434294933</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.6702083333333334</v>
+        <v>0.1528983333333333</v>
       </c>
       <c r="N14">
-        <v>2.010625</v>
+        <v>0.458695</v>
       </c>
       <c r="O14">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="P14">
-        <v>0.01360767055921112</v>
+        <v>0.003154026453294555</v>
       </c>
       <c r="Q14">
-        <v>20.10722582333334</v>
+        <v>0.001196225593888889</v>
       </c>
       <c r="R14">
-        <v>180.96503241</v>
+        <v>0.010766030345</v>
       </c>
       <c r="S14">
-        <v>0.009122406732519841</v>
+        <v>1.39579530432191E-06</v>
       </c>
       <c r="T14">
-        <v>0.009122406732519838</v>
+        <v>1.395795304321911E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>30.001456</v>
+        <v>0.007823666666666666</v>
       </c>
       <c r="H15">
-        <v>90.004368</v>
+        <v>0.023471</v>
       </c>
       <c r="I15">
-        <v>0.6703870947511164</v>
+        <v>0.0004425439434294932</v>
       </c>
       <c r="J15">
-        <v>0.6703870947511162</v>
+        <v>0.0004425439434294933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6972100000000001</v>
+        <v>0.698547</v>
       </c>
       <c r="N15">
-        <v>2.09163</v>
+        <v>2.095641</v>
       </c>
       <c r="O15">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="P15">
-        <v>0.01415590275250867</v>
+        <v>0.0144098085887325</v>
       </c>
       <c r="Q15">
-        <v>20.91731513776</v>
+        <v>0.005465198879</v>
       </c>
       <c r="R15">
-        <v>188.25583623984</v>
+        <v>0.049186789911</v>
       </c>
       <c r="S15">
-        <v>0.009489934519833623</v>
+        <v>6.376973516921861E-06</v>
       </c>
       <c r="T15">
-        <v>0.009489934519833619</v>
+        <v>6.376973516921861E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007823666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.023471</v>
+      </c>
+      <c r="I16">
+        <v>0.0004425439434294932</v>
+      </c>
+      <c r="J16">
+        <v>0.0004425439434294933</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.22895</v>
+      </c>
+      <c r="N16">
+        <v>0.68685</v>
+      </c>
+      <c r="O16">
+        <v>0.004722839946904511</v>
+      </c>
+      <c r="P16">
+        <v>0.004722839946904511</v>
+      </c>
+      <c r="Q16">
+        <v>0.001791228483333333</v>
+      </c>
+      <c r="R16">
+        <v>0.01612105635</v>
+      </c>
+      <c r="S16">
+        <v>2.09006421428946E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.090064214289461E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.696264333333334</v>
+      </c>
+      <c r="H17">
+        <v>5.088793000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="J17">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.294277666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.882833</v>
+      </c>
+      <c r="O17">
+        <v>0.02669869520209519</v>
+      </c>
+      <c r="P17">
+        <v>0.02669869520209519</v>
+      </c>
+      <c r="Q17">
+        <v>2.195437043396556</v>
+      </c>
+      <c r="R17">
+        <v>19.758933390569</v>
+      </c>
+      <c r="S17">
+        <v>0.002561708035476062</v>
+      </c>
+      <c r="T17">
+        <v>0.002561708035476062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.696264333333334</v>
+      </c>
+      <c r="H18">
+        <v>5.088793000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="J18">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>46.102515</v>
+      </c>
+      <c r="N18">
+        <v>138.307545</v>
+      </c>
+      <c r="O18">
+        <v>0.9510146298089733</v>
+      </c>
+      <c r="P18">
+        <v>0.9510146298089732</v>
+      </c>
+      <c r="Q18">
+        <v>78.20205187146502</v>
+      </c>
+      <c r="R18">
+        <v>703.8184668431851</v>
+      </c>
+      <c r="S18">
+        <v>0.09124872210405832</v>
+      </c>
+      <c r="T18">
+        <v>0.09124872210405831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.696264333333334</v>
+      </c>
+      <c r="H19">
+        <v>5.088793000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="J19">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1528983333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.458695</v>
+      </c>
+      <c r="O19">
+        <v>0.003154026453294555</v>
+      </c>
+      <c r="P19">
+        <v>0.003154026453294555</v>
+      </c>
+      <c r="Q19">
+        <v>0.2593559894594445</v>
+      </c>
+      <c r="R19">
+        <v>2.334203905135</v>
+      </c>
+      <c r="S19">
+        <v>0.0003026250851717528</v>
+      </c>
+      <c r="T19">
+        <v>0.0003026250851717528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.001456</v>
-      </c>
-      <c r="H16">
-        <v>90.004368</v>
-      </c>
-      <c r="I16">
-        <v>0.6703870947511164</v>
-      </c>
-      <c r="J16">
-        <v>0.6703870947511162</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.794312</v>
-      </c>
-      <c r="N16">
-        <v>2.382936</v>
-      </c>
-      <c r="O16">
-        <v>0.01612742706953525</v>
-      </c>
-      <c r="P16">
-        <v>0.01612742706953524</v>
-      </c>
-      <c r="Q16">
-        <v>23.830516518272</v>
-      </c>
-      <c r="R16">
-        <v>214.474648664448</v>
-      </c>
-      <c r="S16">
-        <v>0.01081161897895624</v>
-      </c>
-      <c r="T16">
-        <v>0.01081161897895624</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.696264333333334</v>
+      </c>
+      <c r="H20">
+        <v>5.088793000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="J20">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.698547</v>
+      </c>
+      <c r="N20">
+        <v>2.095641</v>
+      </c>
+      <c r="O20">
+        <v>0.0144098085887325</v>
+      </c>
+      <c r="P20">
+        <v>0.0144098085887325</v>
+      </c>
+      <c r="Q20">
+        <v>1.184920361257</v>
+      </c>
+      <c r="R20">
+        <v>10.664283251313</v>
+      </c>
+      <c r="S20">
+        <v>0.001382603987648475</v>
+      </c>
+      <c r="T20">
+        <v>0.001382603987648475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.696264333333334</v>
+      </c>
+      <c r="H21">
+        <v>5.088793000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="J21">
+        <v>0.09594881008548428</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.22895</v>
+      </c>
+      <c r="N21">
+        <v>0.68685</v>
+      </c>
+      <c r="O21">
+        <v>0.004722839946904511</v>
+      </c>
+      <c r="P21">
+        <v>0.004722839946904511</v>
+      </c>
+      <c r="Q21">
+        <v>0.3883597191166667</v>
+      </c>
+      <c r="R21">
+        <v>3.49523747205</v>
+      </c>
+      <c r="S21">
+        <v>0.0004531508731296796</v>
+      </c>
+      <c r="T21">
+        <v>0.0004531508731296796</v>
       </c>
     </row>
   </sheetData>
